--- a/results/I3_N5_M2_T30_C150_DepCentral_s3_P5_res.xlsx
+++ b/results/I3_N5_M2_T30_C150_DepCentral_s3_P5_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>304.0820577263456</v>
+        <v>1571.518995610193</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01200008392333984</v>
+        <v>0.003999948501586914</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>29.2420577263436</v>
+        <v>19.85485207586932</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>13.29756500142714</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>4.961708535750589</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>208.550000000002</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>66.28999999999999</v>
+        <v>310</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -580,6 +580,61 @@
         <is>
           <t>alpha</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>2</v>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>2</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -623,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -634,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -645,7 +700,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -656,7 +711,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -667,7 +722,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -678,7 +733,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -736,7 +791,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -747,7 +802,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -758,7 +813,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -769,7 +824,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -780,7 +835,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -802,7 +857,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -852,7 +907,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>20</v>
+        <v>15.79579898937523</v>
       </c>
     </row>
     <row r="4">
@@ -860,7 +915,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>22.35722294236247</v>
+        <v>12.69023945846941</v>
       </c>
     </row>
     <row r="5">
@@ -868,7 +923,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>10</v>
+        <v>23.61797899241786</v>
       </c>
     </row>
     <row r="6">
@@ -876,7 +931,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>24.13769259370486</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -884,7 +939,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>20</v>
+        <v>10.33301651610693</v>
       </c>
     </row>
     <row r="8">
@@ -892,7 +947,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>27.2470593404437</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9">
@@ -900,7 +955,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>26.7625163973153</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -914,7 +969,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -942,6 +997,188 @@
         <is>
           <t>y</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" t="n">
+        <v>3</v>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>2</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>2</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="n">
+        <v>4</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>2</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="n">
+        <v>5</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>3</v>
+      </c>
+      <c r="B10" t="n">
+        <v>6</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>3</v>
+      </c>
+      <c r="B11" t="n">
+        <v>6</v>
+      </c>
+      <c r="C11" t="n">
+        <v>2</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>3</v>
+      </c>
+      <c r="B12" t="n">
+        <v>6</v>
+      </c>
+      <c r="C12" t="n">
+        <v>3</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>3</v>
+      </c>
+      <c r="B13" t="n">
+        <v>6</v>
+      </c>
+      <c r="C13" t="n">
+        <v>4</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>3</v>
+      </c>
+      <c r="B14" t="n">
+        <v>6</v>
+      </c>
+      <c r="C14" t="n">
+        <v>5</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1043,7 +1280,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>65.71999999999964</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8">
@@ -1054,7 +1291,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>59.43999999999964</v>
+        <v>235</v>
       </c>
     </row>
     <row r="9">
@@ -1065,7 +1302,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>69.37499999999963</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10">
@@ -1076,7 +1313,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>64.17999999999964</v>
+        <v>213</v>
       </c>
     </row>
     <row r="11">
@@ -1087,7 +1324,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>63.18499999999963</v>
+        <v>214</v>
       </c>
     </row>
     <row r="12">
@@ -1098,7 +1335,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>171.3550000000004</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13">
@@ -1109,7 +1346,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>173.8850000000004</v>
+        <v>164</v>
       </c>
     </row>
     <row r="14">
@@ -1120,7 +1357,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>159.105</v>
+        <v>145</v>
       </c>
     </row>
     <row r="15">
@@ -1131,7 +1368,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>175.9150000000004</v>
+        <v>152</v>
       </c>
     </row>
     <row r="16">
@@ -1142,7 +1379,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>173.45</v>
+        <v>150</v>
       </c>
     </row>
     <row r="17">
@@ -1153,7 +1390,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>39.68999999999986</v>
+        <v>264</v>
       </c>
     </row>
     <row r="18">
@@ -1164,7 +1401,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>31.57999999999984</v>
+        <v>293</v>
       </c>
     </row>
     <row r="19">
@@ -1175,7 +1412,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>35.61499999999948</v>
+        <v>273</v>
       </c>
     </row>
     <row r="20">
@@ -1186,7 +1423,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>30.71999999999986</v>
+        <v>276</v>
       </c>
     </row>
     <row r="21">
@@ -1197,7 +1434,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>35.40999999999984</v>
+        <v>269</v>
       </c>
     </row>
     <row r="22">
@@ -1208,7 +1445,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>133.0399999999999</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23">
@@ -1219,7 +1456,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>135.6449999999999</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24">
@@ -1230,7 +1467,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>150.5649999999999</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25">
@@ -1241,7 +1478,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>134.7699999999999</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26">
@@ -1252,7 +1489,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>137.7699999999999</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27">
@@ -1263,7 +1500,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>85.66500000000059</v>
+        <v>97</v>
       </c>
     </row>
     <row r="28">
@@ -1274,7 +1511,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>77.02500000000057</v>
+        <v>115</v>
       </c>
     </row>
     <row r="29">
@@ -1285,7 +1522,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>77.97500000000021</v>
+        <v>104</v>
       </c>
     </row>
     <row r="30">
@@ -1296,7 +1533,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>86.04000000000059</v>
+        <v>109</v>
       </c>
     </row>
     <row r="31">
@@ -1307,7 +1544,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>86.91000000000057</v>
+        <v>108</v>
       </c>
     </row>
     <row r="32">
@@ -1318,7 +1555,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>171.3550000000004</v>
+        <v>264</v>
       </c>
     </row>
     <row r="33">
@@ -1329,7 +1566,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>173.8850000000004</v>
+        <v>293</v>
       </c>
     </row>
     <row r="34">
@@ -1340,7 +1577,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>159.105</v>
+        <v>273</v>
       </c>
     </row>
     <row r="35">
@@ -1351,7 +1588,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>175.9150000000004</v>
+        <v>276</v>
       </c>
     </row>
     <row r="36">
@@ -1362,7 +1599,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>173.45</v>
+        <v>269</v>
       </c>
     </row>
     <row r="37">
@@ -1373,7 +1610,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>133.0399999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1384,7 +1621,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>135.6449999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1395,7 +1632,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>150.5649999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1406,7 +1643,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>134.7699999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1417,7 +1654,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>137.7699999999999</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1464,7 +1701,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>21.35500000000036</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3">
@@ -1475,7 +1712,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>23.88500000000036</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4">
@@ -1486,7 +1723,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>9.10499999999999</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5">
@@ -1497,7 +1734,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>25.91500000000036</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6">
@@ -1508,7 +1745,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>23.45</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7">
@@ -1541,7 +1778,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5649999999999432</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1610,7 +1847,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1621,7 +1858,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1632,7 +1869,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1643,7 +1880,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -1654,7 +1891,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -1665,7 +1902,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -1676,7 +1913,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1687,7 +1924,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -1698,7 +1935,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -1709,7 +1946,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -1720,7 +1957,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>5.91</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1731,7 +1968,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>7.145</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1742,7 +1979,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>6.78</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1753,7 +1990,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>7.455</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1764,7 +2001,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>5.855</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1775,7 +2012,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18">
@@ -1786,7 +2023,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19">
@@ -1797,7 +2034,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20">
@@ -1808,7 +2045,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21">
@@ -1819,7 +2056,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22">
@@ -1830,7 +2067,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23">
@@ -1841,7 +2078,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24">
@@ -1852,7 +2089,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25">
@@ -1863,7 +2100,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26">
@@ -1874,7 +2111,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1888,7 +2125,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1915,7 +2152,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -1926,7 +2163,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -1937,7 +2174,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -1948,7 +2185,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -1959,7 +2196,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
@@ -1970,12 +2207,89 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>2</v>
+      </c>
+      <c r="B8" t="n">
+        <v>4</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>2</v>
+      </c>
+      <c r="B9" t="n">
+        <v>5</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>3</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>3</v>
+      </c>
+      <c r="B11" t="n">
+        <v>2</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>3</v>
+      </c>
+      <c r="B12" t="n">
+        <v>3</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>3</v>
+      </c>
+      <c r="B13" t="n">
+        <v>4</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>3</v>
+      </c>
+      <c r="B14" t="n">
+        <v>5</v>
+      </c>
+      <c r="C14" t="n">
         <v>1</v>
       </c>
     </row>
